--- a/models/all_cold_start_data.xlsx
+++ b/models/all_cold_start_data.xlsx
@@ -130,7 +130,7 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>TeRCEx</t>
+    <t>ETeR-X</t>
   </si>
   <si>
     <t>USEM</t>

--- a/models/all_cold_start_data.xlsx
+++ b/models/all_cold_start_data.xlsx
@@ -130,13 +130,13 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
+    <t>TRecX</t>
   </si>
   <si>
     <t>BERT</t>
+  </si>
+  <si>
+    <t>AITRecX</t>
   </si>
 </sst>
 </file>
@@ -751,73 +751,73 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>309.5013952255249</v>
+        <v>2998.131769657135</v>
       </c>
       <c r="E4">
-        <v>69003669</v>
+        <v>4405141</v>
       </c>
       <c r="F4">
-        <v>0.3084889221290666</v>
+        <v>8.521257820287014</v>
       </c>
       <c r="G4">
-        <v>3.010243654251099</v>
+        <v>2.827534198760986</v>
       </c>
       <c r="H4">
-        <v>0.399864673614502</v>
+        <v>0.3876860737800598</v>
       </c>
       <c r="I4">
-        <v>0.5181587934494019</v>
+        <v>0.5249014496803284</v>
       </c>
       <c r="J4">
-        <v>0.5644739866256714</v>
+        <v>0.5743587613105774</v>
       </c>
       <c r="K4">
-        <v>0.5782604813575745</v>
+        <v>0.5863794088363647</v>
       </c>
       <c r="L4">
-        <v>0.5855512022972107</v>
+        <v>0.5899021625518799</v>
       </c>
       <c r="M4">
-        <v>0.0177283026278019</v>
+        <v>0.0141968559473753</v>
       </c>
       <c r="N4">
-        <v>0.399864673614502</v>
+        <v>0.3876860737800598</v>
       </c>
       <c r="O4">
-        <v>0.1136671155691147</v>
+        <v>0.1170500665903091</v>
       </c>
       <c r="P4">
-        <v>0.06549391150474548</v>
+        <v>0.06820026785135269</v>
       </c>
       <c r="Q4">
-        <v>0.8728010654449463</v>
+        <v>0.9404600858688354</v>
       </c>
       <c r="R4">
-        <v>0.399864673614502</v>
+        <v>0.3876860737800598</v>
       </c>
       <c r="S4">
-        <v>0.5683355927467346</v>
+        <v>0.5852503180503845</v>
       </c>
       <c r="T4">
-        <v>0.6549391150474548</v>
+        <v>0.6820027232170105</v>
       </c>
       <c r="U4">
-        <v>0.7408660054206848</v>
+        <v>0.7875507473945618</v>
       </c>
       <c r="V4">
-        <v>0.8640053868293762</v>
+        <v>0.9018944501876831</v>
       </c>
       <c r="W4">
-        <v>0.03475074933365231</v>
+        <v>0.02797146446750813</v>
       </c>
       <c r="X4">
-        <v>0.399864673614502</v>
+        <v>0.3876860737800598</v>
       </c>
       <c r="Y4">
-        <v>0.1894451934430334</v>
+        <v>0.1950834434893396</v>
       </c>
       <c r="Z4">
-        <v>0.1190798390995372</v>
+        <v>0.12400048774136</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -831,73 +831,73 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>2998.131769657135</v>
+        <v>163.4305446147919</v>
       </c>
       <c r="E5">
-        <v>4405141</v>
+        <v>1247104</v>
       </c>
       <c r="F5">
-        <v>8.521257820287014</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.827534198760986</v>
+        <v>0.01098504383116961</v>
       </c>
       <c r="H5">
-        <v>0.3876860737800598</v>
+        <v>0.4208389818668365</v>
       </c>
       <c r="I5">
-        <v>0.5249014496803284</v>
+        <v>0.5680121183395386</v>
       </c>
       <c r="J5">
-        <v>0.5743587613105774</v>
+        <v>0.6111159324645996</v>
       </c>
       <c r="K5">
-        <v>0.5863794088363647</v>
+        <v>0.6199823021888733</v>
       </c>
       <c r="L5">
-        <v>0.5899021625518799</v>
+        <v>0.6225185394287109</v>
       </c>
       <c r="M5">
-        <v>0.0141968559473753</v>
+        <v>0.6415584683418274</v>
       </c>
       <c r="N5">
-        <v>0.3876860737800598</v>
+        <v>0.4208389818668365</v>
       </c>
       <c r="O5">
-        <v>0.1170500665903091</v>
+        <v>0.1273342370986938</v>
       </c>
       <c r="P5">
-        <v>0.06820026785135269</v>
+        <v>0.07361298799514771</v>
       </c>
       <c r="Q5">
-        <v>0.9404600858688354</v>
+        <v>0.1671177297830582</v>
       </c>
       <c r="R5">
-        <v>0.3876860737800598</v>
+        <v>0.4208389818668365</v>
       </c>
       <c r="S5">
-        <v>0.5852503180503845</v>
+        <v>0.6366711854934692</v>
       </c>
       <c r="T5">
-        <v>0.6820027232170105</v>
+        <v>0.7361298799514771</v>
       </c>
       <c r="U5">
-        <v>0.7875507473945618</v>
+        <v>0.8234100341796875</v>
       </c>
       <c r="V5">
-        <v>0.9018944501876831</v>
+        <v>0.9282814860343933</v>
       </c>
       <c r="W5">
-        <v>0.02797146446750813</v>
+        <v>0.2651637206609724</v>
       </c>
       <c r="X5">
-        <v>0.3876860737800598</v>
+        <v>0.4208389818668365</v>
       </c>
       <c r="Y5">
-        <v>0.1950834434893396</v>
+        <v>0.2122237284978231</v>
       </c>
       <c r="Z5">
-        <v>0.12400048774136</v>
+        <v>0.133841796354814</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1071,73 +1071,73 @@
         <v>39</v>
       </c>
       <c r="D8">
-        <v>828.8893673419952</v>
+        <v>32373.4896941185</v>
       </c>
       <c r="E8">
-        <v>69605418</v>
+        <v>4556458</v>
       </c>
       <c r="F8">
-        <v>0.2595099979405253</v>
+        <v>124.0493430435974</v>
       </c>
       <c r="G8">
-        <v>4.194957256317139</v>
+        <v>3.787338972091675</v>
       </c>
       <c r="H8">
-        <v>0.2965647578239441</v>
+        <v>0.305284172296524</v>
       </c>
       <c r="I8">
-        <v>0.4006761610507965</v>
+        <v>0.4277211129665375</v>
       </c>
       <c r="J8">
-        <v>0.4383136630058289</v>
+        <v>0.4672678709030151</v>
       </c>
       <c r="K8">
-        <v>0.4502852261066437</v>
+        <v>0.4781646728515625</v>
       </c>
       <c r="L8">
-        <v>0.479029506444931</v>
+        <v>0.502985417842865</v>
       </c>
       <c r="M8">
-        <v>0.001691394369117916</v>
+        <v>0.00176662125159055</v>
       </c>
       <c r="N8">
-        <v>0.2965647578239441</v>
+        <v>0.3034982681274414</v>
       </c>
       <c r="O8">
-        <v>0.09005147963762283</v>
+        <v>0.09870784729719162</v>
       </c>
       <c r="P8">
-        <v>0.05203277617692947</v>
+        <v>0.05649753287434578</v>
       </c>
       <c r="Q8">
-        <v>0.9379136562347412</v>
+        <v>0.9481037855148315</v>
       </c>
       <c r="R8">
-        <v>0.2965647578239441</v>
+        <v>0.3034982681274414</v>
       </c>
       <c r="S8">
-        <v>0.4502573907375336</v>
+        <v>0.4935392439365387</v>
       </c>
       <c r="T8">
-        <v>0.5203277468681335</v>
+        <v>0.5649753212928772</v>
       </c>
       <c r="U8">
-        <v>0.5934447050094604</v>
+        <v>0.6417691111564636</v>
       </c>
       <c r="V8">
-        <v>0.6896733045578003</v>
+        <v>0.739153265953064</v>
       </c>
       <c r="W8">
-        <v>0.003376699339482504</v>
+        <v>0.003526671184347838</v>
       </c>
       <c r="X8">
-        <v>0.2965647578239441</v>
+        <v>0.3034982681274414</v>
       </c>
       <c r="Y8">
-        <v>0.1500857989821169</v>
+        <v>0.1645130792425738</v>
       </c>
       <c r="Z8">
-        <v>0.09460504734811703</v>
+        <v>0.102722786921115</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1151,73 +1151,73 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>32373.4896941185</v>
+        <v>16526.09252643585</v>
       </c>
       <c r="E9">
-        <v>4556458</v>
+        <v>4160512</v>
       </c>
       <c r="F9">
-        <v>124.0493430435974</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3.787338972091675</v>
+        <v>3.982665538787842</v>
       </c>
       <c r="H9">
-        <v>0.305284172296524</v>
+        <v>0.3179955780506134</v>
       </c>
       <c r="I9">
-        <v>0.4277211129665375</v>
+        <v>0.4371542036533356</v>
       </c>
       <c r="J9">
-        <v>0.4672678709030151</v>
+        <v>0.4756392240524292</v>
       </c>
       <c r="K9">
-        <v>0.4781646728515625</v>
+        <v>0.4869328439235687</v>
       </c>
       <c r="L9">
-        <v>0.502985417842865</v>
+        <v>0.5099124312400818</v>
       </c>
       <c r="M9">
-        <v>0.00176662125159055</v>
+        <v>0.01087691076099873</v>
       </c>
       <c r="N9">
-        <v>0.3034982681274414</v>
+        <v>0.3179955780506134</v>
       </c>
       <c r="O9">
-        <v>0.09870784729719162</v>
+        <v>0.099443219602108</v>
       </c>
       <c r="P9">
-        <v>0.05649753287434578</v>
+        <v>0.05718037486076355</v>
       </c>
       <c r="Q9">
-        <v>0.9481037855148315</v>
+        <v>0.7473474144935608</v>
       </c>
       <c r="R9">
-        <v>0.3034982681274414</v>
+        <v>0.3179955780506134</v>
       </c>
       <c r="S9">
-        <v>0.4935392439365387</v>
+        <v>0.4972161054611206</v>
       </c>
       <c r="T9">
-        <v>0.5649753212928772</v>
+        <v>0.5718037486076355</v>
       </c>
       <c r="U9">
-        <v>0.6417691111564636</v>
+        <v>0.6462863683700562</v>
       </c>
       <c r="V9">
-        <v>0.739153265953064</v>
+        <v>0.745036244392395</v>
       </c>
       <c r="W9">
-        <v>0.003526671184347838</v>
+        <v>0.02144175770720752</v>
       </c>
       <c r="X9">
-        <v>0.3034982681274414</v>
+        <v>0.3179955780506134</v>
       </c>
       <c r="Y9">
-        <v>0.1645130792425738</v>
+        <v>0.1657386997507678</v>
       </c>
       <c r="Z9">
-        <v>0.102722786921115</v>
+        <v>0.103964317928661</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1391,73 +1391,73 @@
         <v>39</v>
       </c>
       <c r="D12">
-        <v>1094.347886800766</v>
+        <v>54453.34705519676</v>
       </c>
       <c r="E12">
-        <v>69765474</v>
+        <v>4596706</v>
       </c>
       <c r="F12">
-        <v>0.2558238842311238</v>
+        <v>220.0554326341441</v>
       </c>
       <c r="G12">
-        <v>3.985605716705322</v>
+        <v>3.660696744918823</v>
       </c>
       <c r="H12">
-        <v>0.3123539686203003</v>
+        <v>0.2851435840129852</v>
       </c>
       <c r="I12">
-        <v>0.4265748262405396</v>
+        <v>0.4336481690406799</v>
       </c>
       <c r="J12">
-        <v>0.4607625603675842</v>
+        <v>0.4683595895767212</v>
       </c>
       <c r="K12">
-        <v>0.4714919030666351</v>
+        <v>0.4777982234954834</v>
       </c>
       <c r="L12">
-        <v>0.4989337921142578</v>
+        <v>0.5003280639648438</v>
       </c>
       <c r="M12">
-        <v>0.0013920022174716</v>
+        <v>0.00145802809856832</v>
       </c>
       <c r="N12">
-        <v>0.3124293386936188</v>
+        <v>0.2941885888576508</v>
       </c>
       <c r="O12">
-        <v>0.09706791490316391</v>
+        <v>0.1040476337075233</v>
       </c>
       <c r="P12">
-        <v>0.05520464479923248</v>
+        <v>0.05953116714954376</v>
       </c>
       <c r="Q12">
-        <v>0.9543981552124023</v>
+        <v>0.9550765156745911</v>
       </c>
       <c r="R12">
-        <v>0.3124293386936188</v>
+        <v>0.2941885888576508</v>
       </c>
       <c r="S12">
-        <v>0.4853395521640778</v>
+        <v>0.5202381610870361</v>
       </c>
       <c r="T12">
-        <v>0.5520464181900024</v>
+        <v>0.59531170129776</v>
       </c>
       <c r="U12">
-        <v>0.6173211932182312</v>
+        <v>0.6646566390991211</v>
       </c>
       <c r="V12">
-        <v>0.7060375213623047</v>
+        <v>0.7513378858566284</v>
       </c>
       <c r="W12">
-        <v>0.002779949841665829</v>
+        <v>0.002911611306045036</v>
       </c>
       <c r="X12">
-        <v>0.3124293386936188</v>
+        <v>0.2941885888576508</v>
       </c>
       <c r="Y12">
-        <v>0.1617798569301764</v>
+        <v>0.1734127224319511</v>
       </c>
       <c r="Z12">
-        <v>0.1003720809605496</v>
+        <v>0.1082384862190436</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1471,73 +1471,73 @@
         <v>40</v>
       </c>
       <c r="D13">
-        <v>54453.34705519676</v>
+        <v>48028.96248865128</v>
       </c>
       <c r="E13">
-        <v>4596706</v>
+        <v>5092096</v>
       </c>
       <c r="F13">
-        <v>220.0554326341441</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3.660696506500244</v>
+        <v>3.804461479187012</v>
       </c>
       <c r="H13">
-        <v>0.2851435840129852</v>
+        <v>0.3483832180500031</v>
       </c>
       <c r="I13">
-        <v>0.4336481690406799</v>
+        <v>0.4712682068347931</v>
       </c>
       <c r="J13">
-        <v>0.4683595895767212</v>
+        <v>0.5061382651329041</v>
       </c>
       <c r="K13">
-        <v>0.4777982234954834</v>
+        <v>0.5157783031463623</v>
       </c>
       <c r="L13">
-        <v>0.5003280639648438</v>
+        <v>0.5373187065124512</v>
       </c>
       <c r="M13">
-        <v>0.00145802809856832</v>
+        <v>0.01244824938476086</v>
       </c>
       <c r="N13">
-        <v>0.2941885888576508</v>
+        <v>0.3483078181743622</v>
       </c>
       <c r="O13">
-        <v>0.1040476337075233</v>
+        <v>0.1070023402571678</v>
       </c>
       <c r="P13">
-        <v>0.05953116714954376</v>
+        <v>0.06073716655373573</v>
       </c>
       <c r="Q13">
-        <v>0.9550765156745911</v>
+        <v>0.7361121773719788</v>
       </c>
       <c r="R13">
-        <v>0.2941885888576508</v>
+        <v>0.3483078181743622</v>
       </c>
       <c r="S13">
-        <v>0.5202381610870361</v>
+        <v>0.5350117087364197</v>
       </c>
       <c r="T13">
-        <v>0.59531170129776</v>
+        <v>0.6073716878890991</v>
       </c>
       <c r="U13">
-        <v>0.6646566390991211</v>
+        <v>0.6739277839660645</v>
       </c>
       <c r="V13">
-        <v>0.7513378858566284</v>
+        <v>0.7646039128303528</v>
       </c>
       <c r="W13">
-        <v>0.002911611306045036</v>
+        <v>0.02448248032236285</v>
       </c>
       <c r="X13">
-        <v>0.2941885888576508</v>
+        <v>0.3483078181743622</v>
       </c>
       <c r="Y13">
-        <v>0.1734127224319511</v>
+        <v>0.1783372341758675</v>
       </c>
       <c r="Z13">
-        <v>0.1082384862190436</v>
+        <v>0.1104312122853334</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1711,73 +1711,73 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <v>2534.750314712524</v>
+        <v>146530.9495928288</v>
       </c>
       <c r="E16">
-        <v>70679127</v>
+        <v>4826455</v>
       </c>
       <c r="F16">
-        <v>0.8957690840549564</v>
+        <v>844.5575434036764</v>
       </c>
       <c r="G16">
-        <v>4.900970935821533</v>
+        <v>4.340091228485107</v>
       </c>
       <c r="H16">
-        <v>0.2386768609285355</v>
+        <v>0.1878979653120041</v>
       </c>
       <c r="I16">
-        <v>0.3260668218135834</v>
+        <v>0.3169974684715271</v>
       </c>
       <c r="J16">
-        <v>0.3608371913433075</v>
+        <v>0.3565599024295807</v>
       </c>
       <c r="K16">
-        <v>0.3730783462524414</v>
+        <v>0.3677712678909302</v>
       </c>
       <c r="L16">
-        <v>0.4121349453926086</v>
+        <v>0.4006791710853577</v>
       </c>
       <c r="M16">
-        <v>0.0006594904698431492</v>
+        <v>0.0006989580579102039</v>
       </c>
       <c r="N16">
-        <v>0.2386368215084076</v>
+        <v>0.1904208809137344</v>
       </c>
       <c r="O16">
-        <v>0.07326899468898773</v>
+        <v>0.07673701643943787</v>
       </c>
       <c r="P16">
-        <v>0.04283368587493896</v>
+        <v>0.04675022885203362</v>
       </c>
       <c r="Q16">
-        <v>0.9521845579147339</v>
+        <v>0.943494439125061</v>
       </c>
       <c r="R16">
-        <v>0.2386368215084076</v>
+        <v>0.1904208809137344</v>
       </c>
       <c r="S16">
-        <v>0.3663449585437775</v>
+        <v>0.3836850821971893</v>
       </c>
       <c r="T16">
-        <v>0.4283368587493896</v>
+        <v>0.4675022959709167</v>
       </c>
       <c r="U16">
-        <v>0.4935725331306458</v>
+        <v>0.5463938117027283</v>
       </c>
       <c r="V16">
-        <v>0.5857594609260559</v>
+        <v>0.647070586681366</v>
       </c>
       <c r="W16">
-        <v>0.001318068035459103</v>
+        <v>0.001396881280439912</v>
       </c>
       <c r="X16">
-        <v>0.2386368215084076</v>
+        <v>0.1904208809137344</v>
       </c>
       <c r="Y16">
-        <v>0.1221149903204706</v>
+        <v>0.1278950273990631</v>
       </c>
       <c r="Z16">
-        <v>0.07787942886352539</v>
+        <v>0.08500041621775667</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1791,73 +1791,73 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>146530.9495928288</v>
+        <v>164244.7924022675</v>
       </c>
       <c r="E17">
-        <v>4826455</v>
+        <v>7112320</v>
       </c>
       <c r="F17">
-        <v>844.5575434036764</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>4.340091228485107</v>
+        <v>4.775611400604248</v>
       </c>
       <c r="H17">
-        <v>0.1878979653120041</v>
+        <v>0.2661086916923523</v>
       </c>
       <c r="I17">
-        <v>0.3169974684715271</v>
+        <v>0.364946186542511</v>
       </c>
       <c r="J17">
-        <v>0.3565599024295807</v>
+        <v>0.4019806087017059</v>
       </c>
       <c r="K17">
-        <v>0.3677712678909302</v>
+        <v>0.4140214025974274</v>
       </c>
       <c r="L17">
-        <v>0.4006791710853577</v>
+        <v>0.4469384849071503</v>
       </c>
       <c r="M17">
-        <v>0.0006989580579102039</v>
+        <v>0.004296840168535709</v>
       </c>
       <c r="N17">
-        <v>0.1904208809137344</v>
+        <v>0.2661086916923523</v>
       </c>
       <c r="O17">
-        <v>0.07673701643943787</v>
+        <v>0.08274397999048233</v>
       </c>
       <c r="P17">
-        <v>0.04675022885203362</v>
+        <v>0.04789956286549568</v>
       </c>
       <c r="Q17">
-        <v>0.943494439125061</v>
+        <v>0.7612029910087585</v>
       </c>
       <c r="R17">
-        <v>0.1904208809137344</v>
+        <v>0.2661086916923523</v>
       </c>
       <c r="S17">
-        <v>0.3836850821971893</v>
+        <v>0.4137199223041534</v>
       </c>
       <c r="T17">
-        <v>0.4675022959709167</v>
+        <v>0.4789956212043762</v>
       </c>
       <c r="U17">
-        <v>0.5463938117027283</v>
+        <v>0.5485563278198242</v>
       </c>
       <c r="V17">
-        <v>0.647070586681366</v>
+        <v>0.6464698910713196</v>
       </c>
       <c r="W17">
-        <v>0.001396881280439912</v>
+        <v>0.008545443003287695</v>
       </c>
       <c r="X17">
-        <v>0.1904208809137344</v>
+        <v>0.2661086916923523</v>
       </c>
       <c r="Y17">
-        <v>0.1278950273990631</v>
+        <v>0.1379066345592339</v>
       </c>
       <c r="Z17">
-        <v>0.08500041621775667</v>
+        <v>0.08709011417775114</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2031,73 +2031,73 @@
         <v>39</v>
       </c>
       <c r="D20">
-        <v>17247.05885076523</v>
+        <v>214397.6955151558</v>
       </c>
       <c r="E20">
-        <v>69945537</v>
+        <v>4641985</v>
       </c>
       <c r="F20">
-        <v>34.76554703195105</v>
+        <v>1622.869658847441</v>
       </c>
       <c r="G20">
-        <v>3.208269596099854</v>
+        <v>2.92497444152832</v>
       </c>
       <c r="H20">
-        <v>0.4167344272136688</v>
+        <v>0.3594487011432648</v>
       </c>
       <c r="I20">
-        <v>0.5287386178970337</v>
+        <v>0.5182593464851379</v>
       </c>
       <c r="J20">
-        <v>0.5619213581085205</v>
+        <v>0.5499036312103271</v>
       </c>
       <c r="K20">
-        <v>0.5707042813301086</v>
+        <v>0.5575886368751526</v>
       </c>
       <c r="L20">
-        <v>0.5883249640464783</v>
+        <v>0.5737918019294739</v>
       </c>
       <c r="M20">
-        <v>0.00143160973675549</v>
+        <v>0.00125750049483031</v>
       </c>
       <c r="N20">
-        <v>0.4167344272136688</v>
+        <v>0.3870954513549805</v>
       </c>
       <c r="O20">
-        <v>0.1172629669308662</v>
+        <v>0.1224751994013786</v>
       </c>
       <c r="P20">
-        <v>0.06522198766469955</v>
+        <v>0.06814929097890854</v>
       </c>
       <c r="Q20">
-        <v>0.9713367819786072</v>
+        <v>0.9745486974716187</v>
       </c>
       <c r="R20">
-        <v>0.4167344272136688</v>
+        <v>0.3870954513549805</v>
       </c>
       <c r="S20">
-        <v>0.586314857006073</v>
+        <v>0.6123759746551514</v>
       </c>
       <c r="T20">
-        <v>0.6522198915481567</v>
+        <v>0.6814929246902466</v>
       </c>
       <c r="U20">
-        <v>0.7191819548606873</v>
+        <v>0.7432509064674377</v>
       </c>
       <c r="V20">
-        <v>0.8011465072631836</v>
+        <v>0.8205399513244629</v>
       </c>
       <c r="W20">
-        <v>0.002859005713163034</v>
+        <v>0.00251175996188729</v>
       </c>
       <c r="X20">
-        <v>0.4167344272136688</v>
+        <v>0.3870954513549805</v>
       </c>
       <c r="Y20">
-        <v>0.1954382794598738</v>
+        <v>0.2041253310938676</v>
       </c>
       <c r="Z20">
-        <v>0.1185854323639357</v>
+        <v>0.1239078020261339</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2111,73 +2111,73 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>214397.6955151558</v>
+        <v>105589.8217549324</v>
       </c>
       <c r="E21">
-        <v>4641985</v>
+        <v>5659264</v>
       </c>
       <c r="F21">
-        <v>1622.869658847441</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2.92497444152832</v>
+        <v>3.335876226425171</v>
       </c>
       <c r="H21">
-        <v>0.3594487011432648</v>
+        <v>0.4287689030170441</v>
       </c>
       <c r="I21">
-        <v>0.5182593464851379</v>
+        <v>0.5470234155654907</v>
       </c>
       <c r="J21">
-        <v>0.5499036312103271</v>
+        <v>0.5788837075233459</v>
       </c>
       <c r="K21">
-        <v>0.5575886368751526</v>
+        <v>0.5874336361885071</v>
       </c>
       <c r="L21">
-        <v>0.5737918019294739</v>
+        <v>0.6033077239990234</v>
       </c>
       <c r="M21">
-        <v>0.00125750049483031</v>
+        <v>0.01560386549681425</v>
       </c>
       <c r="N21">
-        <v>0.3870954513549805</v>
+        <v>0.4287282526493073</v>
       </c>
       <c r="O21">
-        <v>0.1224751994013786</v>
+        <v>0.1219141334295273</v>
       </c>
       <c r="P21">
-        <v>0.06814929097890854</v>
+        <v>0.06759635359048843</v>
       </c>
       <c r="Q21">
-        <v>0.9745486974716187</v>
+        <v>0.7856155633926392</v>
       </c>
       <c r="R21">
-        <v>0.3870954513549805</v>
+        <v>0.4287282526493073</v>
       </c>
       <c r="S21">
-        <v>0.6123759746551514</v>
+        <v>0.6095706820487976</v>
       </c>
       <c r="T21">
-        <v>0.6814929246902466</v>
+        <v>0.6759635806083679</v>
       </c>
       <c r="U21">
-        <v>0.7432509064674377</v>
+        <v>0.7403236031532288</v>
       </c>
       <c r="V21">
-        <v>0.8205399513244629</v>
+        <v>0.8184257745742798</v>
       </c>
       <c r="W21">
-        <v>0.00251175996188729</v>
+        <v>0.03059995587070081</v>
       </c>
       <c r="X21">
-        <v>0.3870954513549805</v>
+        <v>0.4287282526493073</v>
       </c>
       <c r="Y21">
-        <v>0.2041253310938676</v>
+        <v>0.2031902232103877</v>
       </c>
       <c r="Z21">
-        <v>0.1239078020261339</v>
+        <v>0.1229024618125159</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2351,73 +2351,73 @@
         <v>39</v>
       </c>
       <c r="D24">
-        <v>142.6459674835205</v>
+        <v>4103.80993437767</v>
       </c>
       <c r="E24">
-        <v>68971350</v>
+        <v>4397014</v>
       </c>
       <c r="F24">
-        <v>0.027287259167071</v>
+        <v>4.709043152358867</v>
       </c>
       <c r="G24">
-        <v>1.090219020843506</v>
+        <v>0.9886033535003662</v>
       </c>
       <c r="H24">
-        <v>0.7606232166290283</v>
+        <v>0.7574362754821777</v>
       </c>
       <c r="I24">
-        <v>0.8601682782173157</v>
+        <v>0.8583686947822571</v>
       </c>
       <c r="J24">
-        <v>0.8686516284942627</v>
+        <v>0.8678113222122192</v>
       </c>
       <c r="K24">
-        <v>0.8702284693717957</v>
+        <v>0.8686800003051758</v>
       </c>
       <c r="L24">
-        <v>0.8702284693717957</v>
+        <v>0.8686800003051758</v>
       </c>
       <c r="M24">
-        <v>0.05659479275345802</v>
+        <v>0.03598719462752342</v>
       </c>
       <c r="N24">
-        <v>0.7606232166290283</v>
+        <v>0.7574362754821777</v>
       </c>
       <c r="O24">
-        <v>0.1847025454044342</v>
+        <v>0.1842067986726761</v>
       </c>
       <c r="P24">
-        <v>0.0953257754445076</v>
+        <v>0.09536118805408478</v>
       </c>
       <c r="Q24">
-        <v>0.9684844017028809</v>
+        <v>0.9872521162033081</v>
       </c>
       <c r="R24">
-        <v>0.7606232166290283</v>
+        <v>0.7574362754821777</v>
       </c>
       <c r="S24">
-        <v>0.9235127568244934</v>
+        <v>0.9210339784622192</v>
       </c>
       <c r="T24">
-        <v>0.9532577991485596</v>
+        <v>0.9536119103431702</v>
       </c>
       <c r="U24">
-        <v>0.9720255136489868</v>
+        <v>0.9759206771850586</v>
       </c>
       <c r="V24">
-        <v>0.9904391169548035</v>
+        <v>0.9946883916854858</v>
       </c>
       <c r="W24">
-        <v>0.1069403696724154</v>
+        <v>0.0694430592651783</v>
       </c>
       <c r="X24">
-        <v>0.7606232166290283</v>
+        <v>0.7574362754821777</v>
       </c>
       <c r="Y24">
-        <v>0.3078375773297415</v>
+        <v>0.3070113302932845</v>
       </c>
       <c r="Z24">
-        <v>0.1733195924561871</v>
+        <v>0.1733839787727545</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2431,73 +2431,73 @@
         <v>40</v>
       </c>
       <c r="D25">
-        <v>4103.80993437767</v>
+        <v>324.8513634204865</v>
       </c>
       <c r="E25">
-        <v>4397014</v>
+        <v>1752832</v>
       </c>
       <c r="F25">
-        <v>4.709043152358867</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.9886033535003662</v>
+        <v>1.003013610839844</v>
       </c>
       <c r="H25">
         <v>0.7574362754821777</v>
       </c>
       <c r="I25">
-        <v>0.8583686947822571</v>
+        <v>0.8651416897773743</v>
       </c>
       <c r="J25">
-        <v>0.8678113222122192</v>
+        <v>0.8721804618835449</v>
       </c>
       <c r="K25">
-        <v>0.8686800003051758</v>
+        <v>0.8728376030921936</v>
       </c>
       <c r="L25">
-        <v>0.8686800003051758</v>
+        <v>0.8728376030921936</v>
       </c>
       <c r="M25">
-        <v>0.03598719462752342</v>
+        <v>0.2981167733669281</v>
       </c>
       <c r="N25">
         <v>0.7574362754821777</v>
       </c>
       <c r="O25">
-        <v>0.1842067986726761</v>
+        <v>0.1871104836463928</v>
       </c>
       <c r="P25">
-        <v>0.09536118805408478</v>
+        <v>0.09660056978464127</v>
       </c>
       <c r="Q25">
-        <v>0.9872521162033081</v>
+        <v>0.8912889361381531</v>
       </c>
       <c r="R25">
         <v>0.7574362754821777</v>
       </c>
       <c r="S25">
-        <v>0.9210339784622192</v>
+        <v>0.9355524182319641</v>
       </c>
       <c r="T25">
-        <v>0.9536119103431702</v>
+        <v>0.9660056829452515</v>
       </c>
       <c r="U25">
-        <v>0.9759206771850586</v>
+        <v>0.9837110638618469</v>
       </c>
       <c r="V25">
-        <v>0.9946883916854858</v>
+        <v>0.9961048364639282</v>
       </c>
       <c r="W25">
-        <v>0.0694430592651783</v>
+        <v>0.4467915021018539</v>
       </c>
       <c r="X25">
         <v>0.7574362754821777</v>
       </c>
       <c r="Y25">
-        <v>0.3070113302932845</v>
+        <v>0.3118508060773214</v>
       </c>
       <c r="Z25">
-        <v>0.1733839787727545</v>
+        <v>0.1756373993621385</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2671,73 +2671,73 @@
         <v>39</v>
       </c>
       <c r="D28">
-        <v>287.4131686687469</v>
+        <v>2935.139235258102</v>
       </c>
       <c r="E28">
-        <v>68995974</v>
+        <v>4403206</v>
       </c>
       <c r="F28">
-        <v>0.08795261479601289</v>
+        <v>2.001622838591311</v>
       </c>
       <c r="G28">
-        <v>1.129176020622253</v>
+        <v>0.944119930267334</v>
       </c>
       <c r="H28">
-        <v>0.7531011700630188</v>
+        <v>0.7755247950553894</v>
       </c>
       <c r="I28">
-        <v>0.8521946668624878</v>
+        <v>0.8669675588607788</v>
       </c>
       <c r="J28">
-        <v>0.86107337474823</v>
+        <v>0.8757976889610291</v>
       </c>
       <c r="K28">
-        <v>0.8623473048210144</v>
+        <v>0.8771395683288574</v>
       </c>
       <c r="L28">
-        <v>0.8630725145339966</v>
+        <v>0.8773109912872314</v>
       </c>
       <c r="M28">
-        <v>0.03226035460829735</v>
+        <v>0.02252970822155476</v>
       </c>
       <c r="N28">
-        <v>0.7531011700630188</v>
+        <v>0.7757633328437805</v>
       </c>
       <c r="O28">
-        <v>0.181583970785141</v>
+        <v>0.1847328245639801</v>
       </c>
       <c r="P28">
-        <v>0.09482347220182419</v>
+        <v>0.0952528640627861</v>
       </c>
       <c r="Q28">
-        <v>0.9763835668563843</v>
+        <v>0.9904580116271973</v>
       </c>
       <c r="R28">
-        <v>0.7531011700630188</v>
+        <v>0.7757633328437805</v>
       </c>
       <c r="S28">
-        <v>0.9079198241233826</v>
+        <v>0.9236640930175781</v>
       </c>
       <c r="T28">
-        <v>0.9482347369194031</v>
+        <v>0.9525286555290222</v>
       </c>
       <c r="U28">
-        <v>0.9668415784835815</v>
+        <v>0.9739980697631836</v>
       </c>
       <c r="V28">
-        <v>0.9871183037757874</v>
+        <v>0.9904580116271973</v>
       </c>
       <c r="W28">
-        <v>0.06245708605423663</v>
+        <v>0.04405725670789736</v>
       </c>
       <c r="X28">
-        <v>0.7531011700630188</v>
+        <v>0.7757633328437805</v>
       </c>
       <c r="Y28">
-        <v>0.3026399496528837</v>
+        <v>0.3078880392842822</v>
       </c>
       <c r="Z28">
-        <v>0.172406313340526</v>
+        <v>0.1731870258150022</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2751,73 +2751,73 @@
         <v>40</v>
       </c>
       <c r="D29">
-        <v>2935.139235258102</v>
+        <v>704.5501158237457</v>
       </c>
       <c r="E29">
-        <v>4403206</v>
+        <v>2171392</v>
       </c>
       <c r="F29">
-        <v>2.001622838591311</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.944119930267334</v>
+        <v>1.024034380912781</v>
       </c>
       <c r="H29">
-        <v>0.7755247950553894</v>
+        <v>0.7614504098892212</v>
       </c>
       <c r="I29">
-        <v>0.8669675588607788</v>
+        <v>0.864532470703125</v>
       </c>
       <c r="J29">
-        <v>0.8757976889610291</v>
+        <v>0.8720678687095642</v>
       </c>
       <c r="K29">
-        <v>0.8771395683288574</v>
+        <v>0.8730208277702332</v>
       </c>
       <c r="L29">
-        <v>0.8773109912872314</v>
+        <v>0.8731266856193542</v>
       </c>
       <c r="M29">
-        <v>0.02252970822155476</v>
+        <v>0.2900619804859161</v>
       </c>
       <c r="N29">
-        <v>0.7757633328437805</v>
+        <v>0.7614504098892212</v>
       </c>
       <c r="O29">
         <v>0.1847328245639801</v>
       </c>
       <c r="P29">
-        <v>0.0952528640627861</v>
+        <v>0.09611164033412933</v>
       </c>
       <c r="Q29">
-        <v>0.9904580116271973</v>
+        <v>0.8821564912796021</v>
       </c>
       <c r="R29">
-        <v>0.7757633328437805</v>
+        <v>0.7614504098892212</v>
       </c>
       <c r="S29">
         <v>0.9236640930175781</v>
       </c>
       <c r="T29">
-        <v>0.9525286555290222</v>
+        <v>0.9611164331436157</v>
       </c>
       <c r="U29">
-        <v>0.9739980697631836</v>
+        <v>0.9802004098892212</v>
       </c>
       <c r="V29">
-        <v>0.9904580116271973</v>
+        <v>0.9935591816902161</v>
       </c>
       <c r="W29">
-        <v>0.04405725670789736</v>
+        <v>0.436574009235119</v>
       </c>
       <c r="X29">
-        <v>0.7757633328437805</v>
+        <v>0.7614504098892212</v>
       </c>
       <c r="Y29">
         <v>0.3078880392842822</v>
       </c>
       <c r="Z29">
-        <v>0.1731870258150022</v>
+        <v>0.1747484374637446</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2991,73 +2991,73 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>62.45525884628296</v>
+        <v>2426.383432865143</v>
       </c>
       <c r="E32">
-        <v>68953908</v>
+        <v>4392628</v>
       </c>
       <c r="F32">
-        <v>0.0048550558962064</v>
+        <v>2.656418360351311</v>
       </c>
       <c r="G32">
-        <v>0.8018146753311157</v>
+        <v>0.7178563475608826</v>
       </c>
       <c r="H32">
-        <v>0.8149812817573547</v>
+        <v>0.8082396984100342</v>
       </c>
       <c r="I32">
-        <v>0.9004984498023987</v>
+        <v>0.9009535312652588</v>
       </c>
       <c r="J32">
-        <v>0.9061364531517029</v>
+        <v>0.905142605304718</v>
       </c>
       <c r="K32">
-        <v>0.9061364531517029</v>
+        <v>0.905142605304718</v>
       </c>
       <c r="L32">
-        <v>0.9061364531517029</v>
+        <v>0.905142605304718</v>
       </c>
       <c r="M32">
-        <v>0.09142456948757172</v>
+        <v>0.0584186390042305</v>
       </c>
       <c r="N32">
-        <v>0.8149812817573547</v>
+        <v>0.8082396984100342</v>
       </c>
       <c r="O32">
-        <v>0.1895131021738052</v>
+        <v>0.1911610513925552</v>
       </c>
       <c r="P32">
-        <v>0.09760299324989319</v>
+        <v>0.09820225089788437</v>
       </c>
       <c r="Q32">
-        <v>0.9782771468162537</v>
+        <v>0.9917603135108948</v>
       </c>
       <c r="R32">
-        <v>0.8149812817573547</v>
+        <v>0.8082396984100342</v>
       </c>
       <c r="S32">
-        <v>0.9475655555725098</v>
+        <v>0.955805242061615</v>
       </c>
       <c r="T32">
-        <v>0.9760299921035767</v>
+        <v>0.9820224642753601</v>
       </c>
       <c r="U32">
-        <v>0.989513099193573</v>
+        <v>0.9917603135108948</v>
       </c>
       <c r="V32">
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.1672215078727665</v>
+        <v>0.110337933539724</v>
       </c>
       <c r="X32">
-        <v>0.8149812817573547</v>
+        <v>0.8082396984100342</v>
       </c>
       <c r="Y32">
-        <v>0.3158551727732022</v>
+        <v>0.3186017514930831</v>
       </c>
       <c r="Z32">
-        <v>0.1774599887122792</v>
+        <v>0.1785495463481619</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -3071,73 +3071,73 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>2426.383432865143</v>
+        <v>137.3853771686554</v>
       </c>
       <c r="E33">
-        <v>4392628</v>
+        <v>1489024</v>
       </c>
       <c r="F33">
-        <v>2.656418360351311</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.7178563475608826</v>
+        <v>0.8275913000106812</v>
       </c>
       <c r="H33">
-        <v>0.8082396984100342</v>
+        <v>0.8097378015518188</v>
       </c>
       <c r="I33">
-        <v>0.9009535312652588</v>
+        <v>0.9003991484642029</v>
       </c>
       <c r="J33">
-        <v>0.905142605304718</v>
+        <v>0.9054937362670898</v>
       </c>
       <c r="K33">
-        <v>0.905142605304718</v>
+        <v>0.9054937362670898</v>
       </c>
       <c r="L33">
-        <v>0.905142605304718</v>
+        <v>0.9054937362670898</v>
       </c>
       <c r="M33">
-        <v>0.0584186390042305</v>
+        <v>0.408749133348465</v>
       </c>
       <c r="N33">
-        <v>0.8082396984100342</v>
+        <v>0.8097378015518188</v>
       </c>
       <c r="O33">
-        <v>0.1911610513925552</v>
+        <v>0.1920599192380905</v>
       </c>
       <c r="P33">
-        <v>0.09820225089788437</v>
+        <v>0.09790261834859848</v>
       </c>
       <c r="Q33">
-        <v>0.9917603135108948</v>
+        <v>0.8958801627159119</v>
       </c>
       <c r="R33">
-        <v>0.8082396984100342</v>
+        <v>0.8097378015518188</v>
       </c>
       <c r="S33">
-        <v>0.955805242061615</v>
+        <v>0.9602996110916138</v>
       </c>
       <c r="T33">
-        <v>0.9820224642753601</v>
+        <v>0.979026198387146</v>
       </c>
       <c r="U33">
-        <v>0.9917603135108948</v>
+        <v>0.9925093650817871</v>
       </c>
       <c r="V33">
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.110337933539724</v>
+        <v>0.5613705612757314</v>
       </c>
       <c r="X33">
-        <v>0.8082396984100342</v>
+        <v>0.8097378015518188</v>
       </c>
       <c r="Y33">
-        <v>0.3186017514930831</v>
+        <v>0.3200998662246598</v>
       </c>
       <c r="Z33">
-        <v>0.1785495463481619</v>
+        <v>0.1780047608801156</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -3311,73 +3311,73 @@
         <v>39</v>
       </c>
       <c r="D36">
-        <v>95.36306858062744</v>
+        <v>3480.940505504608</v>
       </c>
       <c r="E36">
-        <v>68965707</v>
+        <v>4395595</v>
       </c>
       <c r="F36">
-        <v>0.0118122737849242</v>
+        <v>3.786625440024471</v>
       </c>
       <c r="G36">
-        <v>0.9659096002578735</v>
+        <v>0.8859512805938721</v>
       </c>
       <c r="H36">
-        <v>0.7478491067886353</v>
+        <v>0.7557908892631531</v>
       </c>
       <c r="I36">
-        <v>0.8692641258239746</v>
+        <v>0.8717240691184998</v>
       </c>
       <c r="J36">
-        <v>0.8746862411499023</v>
+        <v>0.8785743713378906</v>
       </c>
       <c r="K36">
-        <v>0.875129759311676</v>
+        <v>0.8790107369422913</v>
       </c>
       <c r="L36">
-        <v>0.875129759311676</v>
+        <v>0.8790107369422913</v>
       </c>
       <c r="M36">
-        <v>0.05839845910668373</v>
+        <v>0.04131980985403061</v>
       </c>
       <c r="N36">
-        <v>0.7478491067886353</v>
+        <v>0.7557908892631531</v>
       </c>
       <c r="O36">
-        <v>0.1894109845161438</v>
+        <v>0.1896757185459137</v>
       </c>
       <c r="P36">
-        <v>0.09741892665624619</v>
+        <v>0.09682329744100571</v>
       </c>
       <c r="Q36">
-        <v>0.9841164946556091</v>
+        <v>0.9920582175254822</v>
       </c>
       <c r="R36">
-        <v>0.7478491067886353</v>
+        <v>0.7557908892631531</v>
       </c>
       <c r="S36">
-        <v>0.947054922580719</v>
+        <v>0.9483785629272461</v>
       </c>
       <c r="T36">
-        <v>0.974189281463623</v>
+        <v>0.9682329297065735</v>
       </c>
       <c r="U36">
-        <v>0.9867637157440186</v>
+        <v>0.9874255657196045</v>
       </c>
       <c r="V36">
         <v>0.9973527193069458</v>
       </c>
       <c r="W36">
-        <v>0.1102543165677461</v>
+        <v>0.07933525936530696</v>
       </c>
       <c r="X36">
-        <v>0.7478491067886353</v>
+        <v>0.7557908892631531</v>
       </c>
       <c r="Y36">
-        <v>0.315684974193573</v>
+        <v>0.3161261959208382</v>
       </c>
       <c r="Z36">
-        <v>0.1771253214394751</v>
+        <v>0.1760423582447461</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -3391,73 +3391,73 @@
         <v>40</v>
       </c>
       <c r="D37">
-        <v>3480.940505504608</v>
+        <v>1585.040477991104</v>
       </c>
       <c r="E37">
-        <v>4395595</v>
+        <v>1782400</v>
       </c>
       <c r="F37">
-        <v>3.786625440024471</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.8859512805938721</v>
+        <v>0.9694980382919312</v>
       </c>
       <c r="H37">
-        <v>0.7557908892631531</v>
+        <v>0.7313037514686584</v>
       </c>
       <c r="I37">
-        <v>0.8717240691184998</v>
+        <v>0.8600685000419617</v>
       </c>
       <c r="J37">
-        <v>0.8785743713378906</v>
+        <v>0.866643488407135</v>
       </c>
       <c r="K37">
-        <v>0.8790107369422913</v>
+        <v>0.8667596578598022</v>
       </c>
       <c r="L37">
-        <v>0.8790107369422913</v>
+        <v>0.8667596578598022</v>
       </c>
       <c r="M37">
-        <v>0.04131980985403061</v>
+        <v>0.3698858916759491</v>
       </c>
       <c r="N37">
-        <v>0.7557908892631531</v>
+        <v>0.7313037514686584</v>
       </c>
       <c r="O37">
-        <v>0.1896757185459137</v>
+        <v>0.1879549920558929</v>
       </c>
       <c r="P37">
-        <v>0.09682329744100571</v>
+        <v>0.09715420007705688</v>
       </c>
       <c r="Q37">
-        <v>0.9920582175254822</v>
+        <v>0.8795499801635742</v>
       </c>
       <c r="R37">
-        <v>0.7557908892631531</v>
+        <v>0.7313037514686584</v>
       </c>
       <c r="S37">
-        <v>0.9483785629272461</v>
+        <v>0.9397749900817871</v>
       </c>
       <c r="T37">
-        <v>0.9682329297065735</v>
+        <v>0.9715420007705688</v>
       </c>
       <c r="U37">
-        <v>0.9874255657196045</v>
+        <v>0.9867637157440186</v>
       </c>
       <c r="V37">
-        <v>0.9973527193069458</v>
+        <v>0.9993382096290588</v>
       </c>
       <c r="W37">
-        <v>0.07933525936530696</v>
+        <v>0.5207680298267482</v>
       </c>
       <c r="X37">
-        <v>0.7557908892631531</v>
+        <v>0.7313037514686584</v>
       </c>
       <c r="Y37">
-        <v>0.3161261959208382</v>
+        <v>0.3132583217488394</v>
       </c>
       <c r="Z37">
-        <v>0.1760423582447461</v>
+        <v>0.1766440001401034</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -3631,70 +3631,70 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>118.9589469432831</v>
+        <v>2607.105662822723</v>
       </c>
       <c r="E40">
-        <v>68959551</v>
+        <v>4394047</v>
       </c>
       <c r="F40">
-        <v>0.0204428279676419</v>
+        <v>3.616083891602442</v>
       </c>
       <c r="G40">
-        <v>0.9386619329452515</v>
+        <v>0.8449052572250366</v>
       </c>
       <c r="H40">
-        <v>0.7954924702644348</v>
+        <v>0.8005008101463318</v>
       </c>
       <c r="I40">
-        <v>0.8822371959686279</v>
+        <v>0.8865099549293518</v>
       </c>
       <c r="J40">
-        <v>0.8901870846748352</v>
+        <v>0.8943278789520264</v>
       </c>
       <c r="K40">
-        <v>0.8904697299003601</v>
+        <v>0.8947643041610718</v>
       </c>
       <c r="L40">
-        <v>0.8904697299003601</v>
+        <v>0.8947643041610718</v>
       </c>
       <c r="M40">
-        <v>0.06671621650457382</v>
+        <v>0.04218555986881256</v>
       </c>
       <c r="N40">
-        <v>0.7954924702644348</v>
+        <v>0.8005008101463318</v>
       </c>
       <c r="O40">
-        <v>0.1881469041109085</v>
+        <v>0.1889816373586655</v>
       </c>
       <c r="P40">
         <v>0.09641068428754807</v>
       </c>
       <c r="Q40">
-        <v>0.9741235375404358</v>
+        <v>0.9924874901771545</v>
       </c>
       <c r="R40">
-        <v>0.7954924702644348</v>
+        <v>0.8005008101463318</v>
       </c>
       <c r="S40">
-        <v>0.9407345652580261</v>
+        <v>0.9449082016944885</v>
       </c>
       <c r="T40">
         <v>0.9641068577766418</v>
       </c>
       <c r="U40">
-        <v>0.9833055138587952</v>
+        <v>0.9858096837997437</v>
       </c>
       <c r="V40">
-        <v>0.9983305335044861</v>
+        <v>0.9974958300590515</v>
       </c>
       <c r="W40">
-        <v>0.1248796206720188</v>
+        <v>0.08093115102216258</v>
       </c>
       <c r="X40">
-        <v>0.7954924702644348</v>
+        <v>0.8005008101463318</v>
       </c>
       <c r="Y40">
-        <v>0.3135781760017076</v>
+        <v>0.3149693964256181</v>
       </c>
       <c r="Z40">
         <v>0.1752921534963876</v>
@@ -3711,73 +3711,73 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>2607.105662822723</v>
+        <v>127.2567572593689</v>
       </c>
       <c r="E41">
-        <v>4394047</v>
+        <v>1392256</v>
       </c>
       <c r="F41">
-        <v>3.616083891602442</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.8449052572250366</v>
+        <v>0.008529081009328365</v>
       </c>
       <c r="H41">
-        <v>0.8005008101463318</v>
+        <v>0.7854757905006409</v>
       </c>
       <c r="I41">
-        <v>0.8865099549293518</v>
+        <v>0.8843570351600647</v>
       </c>
       <c r="J41">
-        <v>0.8943278789520264</v>
+        <v>0.8904972076416016</v>
       </c>
       <c r="K41">
-        <v>0.8947643041610718</v>
+        <v>0.8906363844871521</v>
       </c>
       <c r="L41">
-        <v>0.8947643041610718</v>
+        <v>0.8906363844871521</v>
       </c>
       <c r="M41">
-        <v>0.04218555986881256</v>
+        <v>0.8502303957939148</v>
       </c>
       <c r="N41">
-        <v>0.8005008101463318</v>
+        <v>0.7854757905006409</v>
       </c>
       <c r="O41">
-        <v>0.1889816373586655</v>
+        <v>0.1891485750675201</v>
       </c>
       <c r="P41">
-        <v>0.09641068428754807</v>
+        <v>0.0974123552441597</v>
       </c>
       <c r="Q41">
+        <v>0.6160266995429993</v>
+      </c>
+      <c r="R41">
+        <v>0.7854757905006409</v>
+      </c>
+      <c r="S41">
+        <v>0.9457429051399231</v>
+      </c>
+      <c r="T41">
+        <v>0.9741235375404358</v>
+      </c>
+      <c r="U41">
         <v>0.9924874901771545</v>
       </c>
-      <c r="R41">
-        <v>0.8005008101463318</v>
-      </c>
-      <c r="S41">
-        <v>0.9449082016944885</v>
-      </c>
-      <c r="T41">
-        <v>0.9641068577766418</v>
-      </c>
-      <c r="U41">
-        <v>0.9858096837997437</v>
-      </c>
       <c r="V41">
-        <v>0.9974958300590515</v>
+        <v>0.9991652965545654</v>
       </c>
       <c r="W41">
-        <v>0.08093115102216258</v>
+        <v>0.7144239932243446</v>
       </c>
       <c r="X41">
-        <v>0.8005008101463318</v>
+        <v>0.7854757905006409</v>
       </c>
       <c r="Y41">
-        <v>0.3149693964256181</v>
+        <v>0.3152476267682181</v>
       </c>
       <c r="Z41">
-        <v>0.1752921534963876</v>
+        <v>0.1771133729248993</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -3951,73 +3951,73 @@
         <v>39</v>
       </c>
       <c r="D44">
-        <v>3345.191141366959</v>
+        <v>992.1567485332489</v>
       </c>
       <c r="E44">
-        <v>69289410</v>
+        <v>4476994</v>
       </c>
       <c r="F44">
-        <v>13.86698724765062</v>
+        <v>0.1973861693420552</v>
       </c>
       <c r="G44">
-        <v>6.281520843505859</v>
+        <v>6.284360885620117</v>
       </c>
       <c r="H44">
-        <v>0.002589331939816475</v>
+        <v>0.002783531788736582</v>
       </c>
       <c r="I44">
-        <v>0.03426813334226608</v>
+        <v>0.03665235638618469</v>
       </c>
       <c r="J44">
-        <v>0.07739891111850739</v>
+        <v>0.07686669379472733</v>
       </c>
       <c r="K44">
-        <v>0.09814110398292542</v>
+        <v>0.0978914201259613</v>
       </c>
       <c r="L44">
-        <v>0.1713400334119797</v>
+        <v>0.1713510751724243</v>
       </c>
       <c r="M44">
-        <v>0.003114947350695729</v>
+        <v>0.003216917859390378</v>
       </c>
       <c r="N44">
-        <v>0.002589331939816475</v>
+        <v>0.002783531788736582</v>
       </c>
       <c r="O44">
-        <v>0.01166494004428387</v>
+        <v>0.01153547409921885</v>
       </c>
       <c r="P44">
-        <v>0.007780942600220442</v>
+        <v>0.008551268838346004</v>
       </c>
       <c r="Q44">
-        <v>0.5163775086402893</v>
+        <v>0.4968280792236328</v>
       </c>
       <c r="R44">
-        <v>0.002589331939816475</v>
+        <v>0.002783531788736582</v>
       </c>
       <c r="S44">
-        <v>0.05832470208406448</v>
+        <v>0.05767736956477165</v>
       </c>
       <c r="T44">
-        <v>0.07780942320823669</v>
+        <v>0.08551269024610519</v>
       </c>
       <c r="U44">
-        <v>0.1562014520168304</v>
+        <v>0.1495986580848694</v>
       </c>
       <c r="V44">
-        <v>0.275634378194809</v>
+        <v>0.2723329961299896</v>
       </c>
       <c r="W44">
-        <v>0.006192539406292525</v>
+        <v>0.00639244520162957</v>
       </c>
       <c r="X44">
-        <v>0.002589331939816475</v>
+        <v>0.002783531788736582</v>
       </c>
       <c r="Y44">
-        <v>0.01944156684395339</v>
+        <v>0.0192257901136246</v>
       </c>
       <c r="Z44">
-        <v>0.01414716831785588</v>
+        <v>0.01554776155505298</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -4031,73 +4031,73 @@
         <v>40</v>
       </c>
       <c r="D45">
-        <v>992.1567485332489</v>
+        <v>4408.633643388748</v>
       </c>
       <c r="E45">
-        <v>4476994</v>
+        <v>1768576</v>
       </c>
       <c r="F45">
-        <v>0.1973861693420552</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>6.284361362457275</v>
+        <v>3.527125358581543</v>
       </c>
       <c r="H45">
-        <v>0.002783531788736582</v>
+        <v>0.3312402963638306</v>
       </c>
       <c r="I45">
-        <v>0.03665235638618469</v>
+        <v>0.4777730107307434</v>
       </c>
       <c r="J45">
-        <v>0.07686669379472733</v>
+        <v>0.5174068808555603</v>
       </c>
       <c r="K45">
-        <v>0.0978914201259613</v>
+        <v>0.5281673073768616</v>
       </c>
       <c r="L45">
-        <v>0.1713510751724243</v>
+        <v>0.5431290864944458</v>
       </c>
       <c r="M45">
-        <v>0.003216917859390378</v>
+        <v>0.01893037930130959</v>
       </c>
       <c r="N45">
-        <v>0.002783531788736582</v>
+        <v>0.3312402963638306</v>
       </c>
       <c r="O45">
-        <v>0.01153547409921885</v>
+        <v>0.1106292083859444</v>
       </c>
       <c r="P45">
-        <v>0.008551268838346004</v>
+        <v>0.06414422392845154</v>
       </c>
       <c r="Q45">
-        <v>0.4968280792236328</v>
+        <v>0.7733687162399292</v>
       </c>
       <c r="R45">
-        <v>0.002783531788736582</v>
+        <v>0.3312402963638306</v>
       </c>
       <c r="S45">
-        <v>0.05767736956477165</v>
+        <v>0.5531460642814636</v>
       </c>
       <c r="T45">
-        <v>0.08551269024610519</v>
+        <v>0.6414422392845154</v>
       </c>
       <c r="U45">
-        <v>0.1495986580848694</v>
+        <v>0.7220352292060852</v>
       </c>
       <c r="V45">
-        <v>0.2723329961299896</v>
+        <v>0.8180994391441345</v>
       </c>
       <c r="W45">
-        <v>0.00639244520162957</v>
+        <v>0.03695615259585187</v>
       </c>
       <c r="X45">
-        <v>0.002783531788736582</v>
+        <v>0.3312402963638306</v>
       </c>
       <c r="Y45">
-        <v>0.0192257901136246</v>
+        <v>0.1843820152183373</v>
       </c>
       <c r="Z45">
-        <v>0.01554776155505298</v>
+        <v>0.1166258616880937</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -4271,73 +4271,73 @@
         <v>39</v>
       </c>
       <c r="D48">
-        <v>4198.602324008942</v>
+        <v>9970.989691495895</v>
       </c>
       <c r="E48">
-        <v>69454596</v>
+        <v>4518532</v>
       </c>
       <c r="F48">
-        <v>14.98814846419687</v>
+        <v>16.00890431201247</v>
       </c>
       <c r="G48">
-        <v>6.572552680969238</v>
+        <v>6.572718620300293</v>
       </c>
       <c r="H48">
-        <v>0.01874027401208878</v>
+        <v>0.01853731088340282</v>
       </c>
       <c r="I48">
-        <v>0.05214429274201393</v>
+        <v>0.05191774293780327</v>
       </c>
       <c r="J48">
-        <v>0.08468468487262726</v>
+        <v>0.08406961709260941</v>
       </c>
       <c r="K48">
-        <v>0.1032995954155922</v>
+        <v>0.1028487980365753</v>
       </c>
       <c r="L48">
-        <v>0.1788226664066315</v>
+        <v>0.178579568862915</v>
       </c>
       <c r="M48">
-        <v>0.002192539628595114</v>
+        <v>0.002127093495801091</v>
       </c>
       <c r="N48">
-        <v>0.01874027401208878</v>
+        <v>0.01853731088340282</v>
       </c>
       <c r="O48">
-        <v>0.01308436505496502</v>
+        <v>0.01312495768070221</v>
       </c>
       <c r="P48">
-        <v>0.009600162506103516</v>
+        <v>0.009586631320416927</v>
       </c>
       <c r="Q48">
-        <v>0.5670793652534485</v>
+        <v>0.5782423615455627</v>
       </c>
       <c r="R48">
-        <v>0.01874027401208878</v>
+        <v>0.01853731088340282</v>
       </c>
       <c r="S48">
-        <v>0.06542182713747025</v>
+        <v>0.06562478840351105</v>
       </c>
       <c r="T48">
-        <v>0.09600162506103516</v>
+        <v>0.09586631506681442</v>
       </c>
       <c r="U48">
-        <v>0.1457952708005905</v>
+        <v>0.1438332945108414</v>
       </c>
       <c r="V48">
-        <v>0.2480887621641159</v>
+        <v>0.2459238171577454</v>
       </c>
       <c r="W48">
-        <v>0.004368190210034612</v>
+        <v>0.004238595107154863</v>
       </c>
       <c r="X48">
-        <v>0.01874027401208878</v>
+        <v>0.01853731088340282</v>
       </c>
       <c r="Y48">
-        <v>0.02180727519508865</v>
+        <v>0.02187492946783702</v>
       </c>
       <c r="Z48">
-        <v>0.01745484092018821</v>
+        <v>0.01743023879518193</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -4351,73 +4351,73 @@
         <v>40</v>
       </c>
       <c r="D49">
-        <v>9970.989691495895</v>
+        <v>6877.387166976929</v>
       </c>
       <c r="E49">
-        <v>4518532</v>
+        <v>2784256</v>
       </c>
       <c r="F49">
-        <v>16.00890431201247</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>6.572718620300293</v>
+        <v>3.969818353652954</v>
       </c>
       <c r="H49">
-        <v>0.01853731088340282</v>
+        <v>0.3433461785316467</v>
       </c>
       <c r="I49">
-        <v>0.05191774293780327</v>
+        <v>0.4528816342353821</v>
       </c>
       <c r="J49">
-        <v>0.08406961709260941</v>
+        <v>0.4885249733924866</v>
       </c>
       <c r="K49">
-        <v>0.1028487980365753</v>
+        <v>0.5007314085960388</v>
       </c>
       <c r="L49">
-        <v>0.178579568862915</v>
+        <v>0.5245966911315918</v>
       </c>
       <c r="M49">
-        <v>0.002127093495801091</v>
+        <v>0.009668061509728432</v>
       </c>
       <c r="N49">
-        <v>0.01853731088340282</v>
+        <v>0.3433461785316467</v>
       </c>
       <c r="O49">
-        <v>0.01312495768070221</v>
+        <v>0.1016981229186058</v>
       </c>
       <c r="P49">
-        <v>0.009586631320416927</v>
+        <v>0.05727623403072357</v>
       </c>
       <c r="Q49">
-        <v>0.5782423615455627</v>
+        <v>0.7506257891654968</v>
       </c>
       <c r="R49">
-        <v>0.01853731088340282</v>
+        <v>0.3433461785316467</v>
       </c>
       <c r="S49">
-        <v>0.06562478840351105</v>
+        <v>0.5084906220436096</v>
       </c>
       <c r="T49">
-        <v>0.09586631506681442</v>
+        <v>0.5727623105049133</v>
       </c>
       <c r="U49">
-        <v>0.1438332945108414</v>
+        <v>0.6373723149299622</v>
       </c>
       <c r="V49">
-        <v>0.2459238171577454</v>
+        <v>0.7349299788475037</v>
       </c>
       <c r="W49">
-        <v>0.004238595107154863</v>
+        <v>0.0190902406852176</v>
       </c>
       <c r="X49">
-        <v>0.01853731088340282</v>
+        <v>0.3433461785316467</v>
       </c>
       <c r="Y49">
-        <v>0.02187492946783702</v>
+        <v>0.1694968719449308</v>
       </c>
       <c r="Z49">
-        <v>0.01743023879518193</v>
+        <v>0.1041386068359879</v>
       </c>
     </row>
   </sheetData>
